--- a/biology/Médecine/Hôpital_São_José/Hôpital_São_José.xlsx
+++ b/biology/Médecine/Hôpital_São_José/Hôpital_São_José.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_S%C3%A3o_Jos%C3%A9</t>
+          <t>Hôpital_São_José</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hôpital São José est une unité du complexe hospitalier de la Santa Casa de Misericórdia de Porto Alegre au Brésil. C'est un centre de référence en neurochirurgie depuis cinquante ans, comptant avec des services de neurophysiologie clinique et de neuroradiologie. Son équipe de soins intensifs est une des meilleures du Brésil[réf. souhaitée]
  Portail de la médecine   Portail du Rio Grande do Sul                    </t>
